--- a/Crawling/crawling_data/week_genie/week_genie_20211227.xlsx
+++ b/Crawling/crawling_data/week_genie/week_genie_20211227.xlsx
@@ -196,8 +196,7 @@
     <t>Snowman</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>롤린 (Rollin')</t>
